--- a/ProductMatch/ZMB/ProductMatch_2010.xlsx
+++ b/ProductMatch/ZMB/ProductMatch_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\ZMB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5925A124-72D2-4135-916F-85901548E2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D08B08-3932-4373-9ED4-3032175ED6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2CDFEA8-3F16-4E41-826A-930C729C2001}"/>
   </bookViews>
@@ -33,12 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
   <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>CPC2.1 Code</t>
-  </si>
-  <si>
     <t>Products of agriculture, horticulture and market gardening</t>
   </si>
   <si>
@@ -477,15 +471,29 @@
     <t>ProductCode</t>
   </si>
   <si>
-    <t>CPC21 Description</t>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>CPC21Code</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -570,7 +578,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -598,6 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,771 +922,777 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDF3F9E-D63B-46E5-913A-BAB58830812E}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="89.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="C10" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="C11" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="C14" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C15" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="10">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="10">
         <v>92</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="10">
         <v>93</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="10">
         <v>94</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="10">
         <v>95</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="10">
         <v>96</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="10">
         <v>98</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="8">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="8">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="9">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="11">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="11">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="11">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="11">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="11">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="11">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="11">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="11">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="11">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="11">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="11">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="11">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="11">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="11">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="11">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="11">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="11">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="11">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="11">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="11">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="11">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="11">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="11">
-        <v>98</v>
-      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="11"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="14"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="14"/>
+      <c r="C71" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>